--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H2">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J2">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N2">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O2">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P2">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q2">
-        <v>548.6829013017745</v>
+        <v>577.5800827617333</v>
       </c>
       <c r="R2">
-        <v>548.6829013017745</v>
+        <v>5198.220744855599</v>
       </c>
       <c r="S2">
-        <v>0.02326601371637888</v>
+        <v>0.02072655216474242</v>
       </c>
       <c r="T2">
-        <v>0.02326601371637888</v>
+        <v>0.02072655216474242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H3">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J3">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N3">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P3">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q3">
-        <v>1552.28835613711</v>
+        <v>1603.370156481439</v>
       </c>
       <c r="R3">
-        <v>1552.28835613711</v>
+        <v>14430.33140833295</v>
       </c>
       <c r="S3">
-        <v>0.06582228478411749</v>
+        <v>0.0575371903906405</v>
       </c>
       <c r="T3">
-        <v>0.06582228478411749</v>
+        <v>0.05753719039064053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H4">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J4">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N4">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O4">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P4">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q4">
-        <v>4150.414104375012</v>
+        <v>4724.186091478552</v>
       </c>
       <c r="R4">
-        <v>4150.414104375012</v>
+        <v>42517.67482330697</v>
       </c>
       <c r="S4">
-        <v>0.1759916178396302</v>
+        <v>0.169528161346543</v>
       </c>
       <c r="T4">
-        <v>0.1759916178396302</v>
+        <v>0.1695281613465431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0091936930992</v>
+        <v>51.59157666666666</v>
       </c>
       <c r="H5">
-        <v>50.0091936930992</v>
+        <v>154.77473</v>
       </c>
       <c r="I5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177587</v>
       </c>
       <c r="J5">
-        <v>0.2811553464649481</v>
+        <v>0.2641250550177588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N5">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O5">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P5">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q5">
-        <v>379.1072139853367</v>
+        <v>455.1506057669389</v>
       </c>
       <c r="R5">
-        <v>379.1072139853367</v>
+        <v>4096.35545190245</v>
       </c>
       <c r="S5">
-        <v>0.01607543012482153</v>
+        <v>0.01633315111583274</v>
       </c>
       <c r="T5">
-        <v>0.01607543012482153</v>
+        <v>0.01633315111583274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J6">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N6">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O6">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P6">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q6">
-        <v>211.2421429090927</v>
+        <v>216.3049486434667</v>
       </c>
       <c r="R6">
-        <v>211.2421429090927</v>
+        <v>1946.744537791201</v>
       </c>
       <c r="S6">
-        <v>0.008957382456678943</v>
+        <v>0.007762137122377541</v>
       </c>
       <c r="T6">
-        <v>0.008957382456678943</v>
+        <v>0.007762137122377544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J7">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N7">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P7">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q7">
-        <v>597.6288271153668</v>
+        <v>600.4654760528779</v>
       </c>
       <c r="R7">
-        <v>597.6288271153668</v>
+        <v>5404.189284475901</v>
       </c>
       <c r="S7">
-        <v>0.02534148677857583</v>
+        <v>0.02154779810451148</v>
       </c>
       <c r="T7">
-        <v>0.02534148677857583</v>
+        <v>0.02154779810451149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J8">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N8">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O8">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P8">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q8">
-        <v>1597.903574702602</v>
+        <v>1769.217568953107</v>
       </c>
       <c r="R8">
-        <v>1597.903574702602</v>
+        <v>15922.95812057796</v>
       </c>
       <c r="S8">
-        <v>0.06775652457599439</v>
+        <v>0.06348865088689799</v>
       </c>
       <c r="T8">
-        <v>0.06775652457599439</v>
+        <v>0.06348865088689802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.2534690179382</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>19.2534690179382</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728452</v>
       </c>
       <c r="J9">
-        <v>0.1082444117297882</v>
+        <v>0.09891538535728453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N9">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O9">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P9">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q9">
-        <v>145.9557425328127</v>
+        <v>170.4548535238779</v>
       </c>
       <c r="R9">
-        <v>145.9557425328127</v>
+        <v>1534.0936817149</v>
       </c>
       <c r="S9">
-        <v>0.006189017918539068</v>
+        <v>0.00611679924349748</v>
       </c>
       <c r="T9">
-        <v>0.006189017918539068</v>
+        <v>0.006116799243497482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H10">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I10">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J10">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N10">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O10">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P10">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q10">
-        <v>1074.167382950235</v>
+        <v>1258.036741188826</v>
       </c>
       <c r="R10">
-        <v>1074.167382950235</v>
+        <v>11322.33067069944</v>
       </c>
       <c r="S10">
-        <v>0.04554833585321014</v>
+        <v>0.04514484643711179</v>
       </c>
       <c r="T10">
-        <v>0.04554833585321014</v>
+        <v>0.04514484643711181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H11">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I11">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J11">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N11">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P11">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q11">
-        <v>3038.945659031656</v>
+        <v>3492.327084643314</v>
       </c>
       <c r="R11">
-        <v>3038.945659031656</v>
+        <v>31430.94376178983</v>
       </c>
       <c r="S11">
-        <v>0.1288615905810293</v>
+        <v>0.1253227070263479</v>
       </c>
       <c r="T11">
-        <v>0.1288615905810293</v>
+        <v>0.1253227070263479</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H12">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I12">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J12">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N12">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O12">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P12">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q12">
-        <v>8125.347894164153</v>
+        <v>10289.82794364289</v>
       </c>
       <c r="R12">
-        <v>8125.347894164153</v>
+        <v>92608.45149278604</v>
       </c>
       <c r="S12">
-        <v>0.3445422758891468</v>
+        <v>0.3692520950867329</v>
       </c>
       <c r="T12">
-        <v>0.3445422758891468</v>
+        <v>0.3692520950867331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.9039889621471</v>
+        <v>112.3724673333333</v>
       </c>
       <c r="H13">
-        <v>97.9039889621471</v>
+        <v>337.117402</v>
       </c>
       <c r="I13">
-        <v>0.5504233902645641</v>
+        <v>0.5752951554216499</v>
       </c>
       <c r="J13">
-        <v>0.5504233902645641</v>
+        <v>0.57529515542165</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N13">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O13">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P13">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q13">
-        <v>742.1857013186039</v>
+        <v>991.3710702960145</v>
       </c>
       <c r="R13">
-        <v>742.1857013186039</v>
+        <v>8922.33963266413</v>
       </c>
       <c r="S13">
-        <v>0.03147118794117792</v>
+        <v>0.03557550687145721</v>
       </c>
       <c r="T13">
-        <v>0.03147118794117792</v>
+        <v>0.03557550687145722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H14">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J14">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.9716406281009</v>
+        <v>11.19524</v>
       </c>
       <c r="N14">
-        <v>10.9716406281009</v>
+        <v>33.58572</v>
       </c>
       <c r="O14">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938134</v>
       </c>
       <c r="P14">
-        <v>0.08275145398766044</v>
+        <v>0.07847249539938135</v>
       </c>
       <c r="Q14">
-        <v>117.4368899958786</v>
+        <v>134.8457142046</v>
       </c>
       <c r="R14">
-        <v>117.4368899958786</v>
+        <v>1213.6114278414</v>
       </c>
       <c r="S14">
-        <v>0.00497972196139248</v>
+        <v>0.004838959675149589</v>
       </c>
       <c r="T14">
-        <v>0.00497972196139248</v>
+        <v>0.004838959675149591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H15">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J15">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.040059667095</v>
+        <v>31.07813833333333</v>
       </c>
       <c r="N15">
-        <v>31.040059667095</v>
+        <v>93.234415</v>
       </c>
       <c r="O15">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195748</v>
       </c>
       <c r="P15">
-        <v>0.2341135803096799</v>
+        <v>0.2178407133195749</v>
       </c>
       <c r="Q15">
-        <v>332.24275166777</v>
+        <v>374.3335345832417</v>
       </c>
       <c r="R15">
-        <v>332.24275166777</v>
+        <v>3369.001811249175</v>
       </c>
       <c r="S15">
-        <v>0.01408821816595727</v>
+        <v>0.01343301779807495</v>
       </c>
       <c r="T15">
-        <v>0.01408821816595727</v>
+        <v>0.01343301779807496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H16">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J16">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>82.9930218400568</v>
+        <v>91.56894199999999</v>
       </c>
       <c r="N16">
-        <v>82.9930218400568</v>
+        <v>274.706826</v>
       </c>
       <c r="O16">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068143</v>
       </c>
       <c r="P16">
-        <v>0.6259586383557221</v>
+        <v>0.6418480872068144</v>
       </c>
       <c r="Q16">
-        <v>888.3304426954538</v>
+        <v>1102.94012302993</v>
       </c>
       <c r="R16">
-        <v>888.3304426954538</v>
+        <v>9926.46110726937</v>
       </c>
       <c r="S16">
-        <v>0.03766822005095078</v>
+        <v>0.03957917988664035</v>
       </c>
       <c r="T16">
-        <v>0.03766822005095078</v>
+        <v>0.03957917988664036</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.7036763212145</v>
+        <v>12.044915</v>
       </c>
       <c r="H17">
-        <v>10.7036763212145</v>
+        <v>36.134745</v>
       </c>
       <c r="I17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330686</v>
       </c>
       <c r="J17">
-        <v>0.06017685154069964</v>
+        <v>0.06166440420330688</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.58075037785802</v>
+        <v>8.822188333333335</v>
       </c>
       <c r="N17">
-        <v>7.58075037785802</v>
+        <v>26.466565</v>
       </c>
       <c r="O17">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="P17">
-        <v>0.05717632734693763</v>
+        <v>0.06183870407422939</v>
       </c>
       <c r="Q17">
-        <v>81.14189831651676</v>
+        <v>106.2625085889917</v>
       </c>
       <c r="R17">
-        <v>81.14189831651676</v>
+        <v>956.3625773009252</v>
       </c>
       <c r="S17">
-        <v>0.003440691362399111</v>
+        <v>0.00381324684344196</v>
       </c>
       <c r="T17">
-        <v>0.003440691362399111</v>
+        <v>0.003813246843441961</v>
       </c>
     </row>
   </sheetData>
